--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Gemmes Brutes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ARMES</t>
   </si>
@@ -46,6 +47,27 @@
   </si>
   <si>
     <t>1 case (devant)</t>
+  </si>
+  <si>
+    <t>1 s</t>
+  </si>
+  <si>
+    <t>5 s</t>
+  </si>
+  <si>
+    <t>Nombre de coups</t>
+  </si>
+  <si>
+    <t>Nom Gemme</t>
+  </si>
+  <si>
+    <t>Verte Commune</t>
+  </si>
+  <si>
+    <t>Augmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +10 HP max</t>
   </si>
 </sst>
 </file>
@@ -61,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -111,6 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:F7"/>
+  <dimension ref="B5:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,9 +434,10 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -423,8 +453,11 @@
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -434,16 +467,59 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04007BFF-5CB4-4C00-B1D2-397B920BA5D0}">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Gemmes Brutes" sheetId="2" r:id="rId2"/>
+    <sheet name="Pièges" sheetId="3" r:id="rId3"/>
+    <sheet name="Gemmes Raffinées" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ARMES</t>
   </si>
@@ -68,13 +70,38 @@
   </si>
   <si>
     <t xml:space="preserve"> +10 HP max</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Dégat</t>
+  </si>
+  <si>
+    <t>Vapeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 20HP</t>
+  </si>
+  <si>
+    <t>Si toujours en contact, dégât tous les:</t>
+  </si>
+  <si>
+    <t>2 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -139,7 +166,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,14 +531,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04007BFF-5CB4-4C00-B1D2-397B920BA5D0}">
   <dimension ref="B3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="16.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -515,14 +552,67 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE69AE0C-9890-4A3D-BA60-1662B02EB1B9}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7950FF-54C8-436D-A7B9-C400FA4099B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Gemmes Brutes" sheetId="2" r:id="rId2"/>
     <sheet name="Pièges" sheetId="3" r:id="rId3"/>
-    <sheet name="Gemmes Raffinées" sheetId="4" r:id="rId4"/>
+    <sheet name="Objets" sheetId="5" r:id="rId4"/>
+    <sheet name="Gemmes Raffinées" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ARMES</t>
   </si>
@@ -88,13 +89,47 @@
   </si>
   <si>
     <t>2 s</t>
+  </si>
+  <si>
+    <t>Objet</t>
+  </si>
+  <si>
+    <t>Potion commune</t>
+  </si>
+  <si>
+    <t>Potion intermédiaire</t>
+  </si>
+  <si>
+    <t>Potion rare</t>
+  </si>
+  <si>
+    <t>Effet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 50HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 100HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 150HP</t>
+  </si>
+  <si>
+    <t>Fréquence de drop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,12 +204,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,13 +605,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE69AE0C-9890-4A3D-BA60-1662B02EB1B9}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="1" max="3" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="37.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,13 +629,13 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -606,6 +645,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012DC1C-E2EA-4DFA-889E-BF1F7A9588C9}">
+  <dimension ref="B3:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7950FF-54C8-436D-A7B9-C400FA4099B9}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Pièges" sheetId="3" r:id="rId3"/>
     <sheet name="Objets" sheetId="5" r:id="rId4"/>
     <sheet name="Gemmes Raffinées" sheetId="4" r:id="rId5"/>
+    <sheet name="Ennemi" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ARMES</t>
   </si>
@@ -116,13 +117,44 @@
   </si>
   <si>
     <t>Fréquence de drop</t>
+  </si>
+  <si>
+    <t>Ours Robot</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Distance / CàC</t>
+  </si>
+  <si>
+    <t>Dégât par attaque</t>
+  </si>
+  <si>
+    <t>Durée avant attaque suivante</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>CàC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,15 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -211,7 +236,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +531,7 @@
   <dimension ref="B5:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,52 +546,54 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="11">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="11">
         <v>6</v>
       </c>
     </row>
@@ -574,25 +612,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="16.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -611,31 +649,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="7"/>
-    <col min="4" max="4" width="37.28515625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="3" width="11.42578125" style="4"/>
+    <col min="4" max="4" width="37.28515625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -648,53 +686,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012DC1C-E2EA-4DFA-889E-BF1F7A9588C9}">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="8"/>
+    <col min="4" max="4" width="18.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -705,10 +746,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7950FF-54C8-436D-A7B9-C400FA4099B9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C69443B-CA4A-4909-B0D1-C36FE4B5F7E0}">
+  <dimension ref="B2:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11">
+        <v>120</v>
+      </c>
+      <c r="E3" s="11">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
@@ -95,15 +95,6 @@
     <t>Objet</t>
   </si>
   <si>
-    <t>Potion commune</t>
-  </si>
-  <si>
-    <t>Potion intermédiaire</t>
-  </si>
-  <si>
-    <t>Potion rare</t>
-  </si>
-  <si>
     <t>Effet</t>
   </si>
   <si>
@@ -141,13 +132,29 @@
   </si>
   <si>
     <t>CàC</t>
+  </si>
+  <si>
+    <t>Heal de vidange</t>
+  </si>
+  <si>
+    <t>DiesHeal</t>
+  </si>
+  <si>
+    <t>PHEal atomique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,9 +252,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012DC1C-E2EA-4DFA-889E-BF1F7A9588C9}">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,36 +716,36 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -760,54 +772,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C69443B-CA4A-4909-B0D1-C36FE4B5F7E0}">
   <dimension ref="B2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="13"/>
+    <col min="2" max="2" width="13.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27" style="13" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="12" t="s">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>120</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="14">
         <v>20</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ARMES</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>PHEal atomique</t>
+  </si>
+  <si>
+    <t>Illimité</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -243,23 +246,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,54 +560,62 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
+      <c r="C6" s="8">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <v>6</v>
       </c>
     </row>
@@ -698,56 +708,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9012DC1C-E2EA-4DFA-889E-BF1F7A9588C9}">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="8"/>
-    <col min="4" max="4" width="18.42578125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="11.42578125" style="13"/>
+    <col min="2" max="2" width="20.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="13"/>
+    <col min="4" max="4" width="18.42578125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -778,50 +788,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="13"/>
-    <col min="2" max="2" width="13.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="27" style="13" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27" style="10" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>120</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>20</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
+++ b/Docs/Le Journal De Bord De JowJow le GD/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armes Stats" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>ARMES</t>
   </si>
@@ -144,13 +144,113 @@
   </si>
   <si>
     <t>Illimité</t>
+  </si>
+  <si>
+    <t>Pouvoir</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>2 cases</t>
+  </si>
+  <si>
+    <t>12 s</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 s</t>
+  </si>
+  <si>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>Dégâts</t>
+  </si>
+  <si>
+    <t>10 HP / s</t>
+  </si>
+  <si>
+    <t>Verte Rare</t>
+  </si>
+  <si>
+    <t>Verte Epique</t>
+  </si>
+  <si>
+    <t>Verte Légendaire</t>
+  </si>
+  <si>
+    <t>Rouge Commune</t>
+  </si>
+  <si>
+    <t>Rouge Rare</t>
+  </si>
+  <si>
+    <t>Rouge Epique</t>
+  </si>
+  <si>
+    <t>Rouge Legendaire</t>
+  </si>
+  <si>
+    <t>Jaune Commune</t>
+  </si>
+  <si>
+    <t>Jaune Rare</t>
+  </si>
+  <si>
+    <t>Jaune Epique</t>
+  </si>
+  <si>
+    <t>Jaune Legendaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +25 HP max</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +40 HP max</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +50 HP max</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +10 Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +25 Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +40 Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +50 Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +5 HP max / +5 Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +15 HP max / +10 Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +20 HP max / +20 Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +25 HP max / +25 Atk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,9 +344,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,6 +359,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,78 +652,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="16">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="16">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="16">
         <v>6</v>
       </c>
     </row>
@@ -626,17 +735,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04007BFF-5CB4-4C00-B1D2-397B920BA5D0}">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -652,8 +761,96 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -714,50 +911,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="13"/>
-    <col min="2" max="2" width="20.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="13"/>
-    <col min="4" max="4" width="18.42578125" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="11.42578125" style="12"/>
+    <col min="2" max="2" width="20.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12"/>
+    <col min="4" max="4" width="18.42578125" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,14 +963,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7950FF-54C8-436D-A7B9-C400FA4099B9}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -788,50 +1020,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10"/>
-    <col min="2" max="2" width="13.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="27" style="10" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="13.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>120</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>20</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
